--- a/reading list.xlsx
+++ b/reading list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Fast Campus 안드로이드 개발 1기\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>부의 추월차선</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +396,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,6 +430,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3">
